--- a/documentation/satelite_clasification.xlsx
+++ b/documentation/satelite_clasification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\Desktop\diplomna 2024\diplomna2024\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25B9D4AB-6F3E-4EF2-9616-8A2070CC3F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3345FA-8329-4AF3-B8C1-BE5DA1DEF7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2490" yWindow="1335" windowWidth="16980" windowHeight="11085" xr2:uid="{649A490F-1C3F-48E9-8FD1-31425DFB4A0D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Mass(kg)</t>
   </si>
@@ -106,6 +106,45 @@
   </si>
   <si>
     <t>&lt;0.1</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Тегло (kg)</t>
+  </si>
+  <si>
+    <t>фемто сателити</t>
+  </si>
+  <si>
+    <t>пико сателити</t>
+  </si>
+  <si>
+    <t>нано сателити</t>
+  </si>
+  <si>
+    <t>микро сателити</t>
+  </si>
+  <si>
+    <t>мини сателити</t>
+  </si>
+  <si>
+    <t>малки сателити</t>
+  </si>
+  <si>
+    <t>средни сателити</t>
+  </si>
+  <si>
+    <t>междинни сателити</t>
+  </si>
+  <si>
+    <t>големи сателити</t>
+  </si>
+  <si>
+    <t>тежки сателити</t>
+  </si>
+  <si>
+    <t>много тежки сателити</t>
   </si>
 </sst>
 </file>
@@ -513,111 +552,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F32BFFC-F281-4916-902E-FB72B4EE1B3E}">
-  <dimension ref="C3:D14"/>
+  <dimension ref="C3:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
